--- a/data/trans_dic/P15A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02092339693461945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02731931302846818</v>
+        <v>0.02731931302846819</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02717252081501789</v>
@@ -697,7 +697,7 @@
         <v>0.02618910551736301</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03461205197164691</v>
+        <v>0.03461205197164689</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01739858820495305</v>
+        <v>0.01712063425218061</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02289058351853047</v>
+        <v>0.02237898106612178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008964823993947242</v>
+        <v>0.007261639299605205</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01427515101544057</v>
+        <v>0.01568908245395936</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01134091003735376</v>
+        <v>0.01057767309266078</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0102500917162679</v>
+        <v>0.008651009131029702</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.015082517148679</v>
+        <v>0.01502095100517744</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0275845584665685</v>
+        <v>0.02849530138494356</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0172283417507317</v>
+        <v>0.01799880708251545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01931490239905196</v>
+        <v>0.02051677375822288</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01394332175825779</v>
+        <v>0.01362199675407002</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02493066735764754</v>
+        <v>0.02434856719500058</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05724684803690733</v>
+        <v>0.06031749811804032</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06969786619949055</v>
+        <v>0.06582686926989852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04808228770043516</v>
+        <v>0.04182359391566012</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04901871475859639</v>
+        <v>0.04911388348930385</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05827004691759866</v>
+        <v>0.05925784690389583</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05048313487482503</v>
+        <v>0.04842578080946539</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0584546686606418</v>
+        <v>0.06105879127466986</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06063999113913797</v>
+        <v>0.06096041806133295</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04988416895348957</v>
+        <v>0.04798484932733615</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04996650944832049</v>
+        <v>0.04987711537454451</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04200749426784099</v>
+        <v>0.04260420216594628</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04858394353551387</v>
+        <v>0.04732611171601668</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006249627445746137</v>
+        <v>0.006162037733616075</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009917066912786524</v>
+        <v>0.009789731071284115</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004232558503164708</v>
+        <v>0.004176636838522528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009246080424064804</v>
+        <v>0.01002019083799682</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008417298137968897</v>
+        <v>0.007900062733668514</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006027987035758606</v>
+        <v>0.005892893545233678</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002062334419219499</v>
+        <v>0.002417066201855182</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01934791204711481</v>
+        <v>0.02011284676547367</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.00976388079377692</v>
+        <v>0.009675974181271396</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01075803518101589</v>
+        <v>0.01075400055032229</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005083620212344131</v>
+        <v>0.005839355973696406</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01823424976223611</v>
+        <v>0.01826508256596319</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03172875433152889</v>
+        <v>0.03301380247947428</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0384402163138526</v>
+        <v>0.03923966549281952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02686824346345354</v>
+        <v>0.02520807072241649</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04222048645360937</v>
+        <v>0.04732672783054067</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03315208703857101</v>
+        <v>0.03218338467687826</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02795373644716332</v>
+        <v>0.02771294960192019</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0200556635579605</v>
+        <v>0.02038189096216062</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04617888312875269</v>
+        <v>0.04455520080062219</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02636972402643466</v>
+        <v>0.02608431433388978</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02774870771890748</v>
+        <v>0.02813424446738669</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0184945210182855</v>
+        <v>0.01878632281235049</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03890504671970617</v>
+        <v>0.03896948143901011</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03511637230638237</v>
+        <v>0.03512034740613738</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02731984768483632</v>
+        <v>0.02915936364666241</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02063209341710747</v>
+        <v>0.02299178225660192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009488766005470967</v>
+        <v>0.009808592115752881</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.00333913957834177</v>
+        <v>0.003375866881080164</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02926923193314483</v>
+        <v>0.02713315710998532</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005687495069875598</v>
+        <v>0.006229169154622002</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01412654487025897</v>
+        <v>0.0154102412290345</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02159374992731548</v>
+        <v>0.02139669019897675</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03395221328637094</v>
+        <v>0.03469915217883197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01691414839557417</v>
+        <v>0.01714634000615875</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01540957835931319</v>
+        <v>0.01513038829038175</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08966583633794489</v>
+        <v>0.0992235645754217</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07209930333857678</v>
+        <v>0.07352335450460751</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06662760389873222</v>
+        <v>0.06520597414406261</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04377342348573252</v>
+        <v>0.04380628807151647</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02994120427172466</v>
+        <v>0.03235847039853996</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08152513194627603</v>
+        <v>0.07851875724014526</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03531948203849562</v>
+        <v>0.03508696937432377</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03945377696960044</v>
+        <v>0.04021491923741518</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05234836736857877</v>
+        <v>0.05214172251058474</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0684071180607739</v>
+        <v>0.06620210766173025</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04177815362667625</v>
+        <v>0.04061515654635941</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03535121414286995</v>
+        <v>0.03675714695859372</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03111729382740798</v>
+        <v>0.03048647629337087</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02046891424152206</v>
+        <v>0.01883129860324737</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0257309207755771</v>
+        <v>0.02715864719212427</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009681924906628061</v>
+        <v>0.009081012158147871</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01234886700090519</v>
+        <v>0.01267091363991552</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.007834779340330528</v>
+        <v>0.007764109811081473</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02743185734221948</v>
+        <v>0.03021858977980594</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006722821588259591</v>
+        <v>0.006372155687831829</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02583010909057878</v>
+        <v>0.02577440527307244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0172679741786002</v>
+        <v>0.01776611494856697</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03279787377358346</v>
+        <v>0.03338549306345271</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01031933845704714</v>
+        <v>0.01090274970691316</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07419212343455511</v>
+        <v>0.07599061898062277</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06700016905069903</v>
+        <v>0.06516149039149606</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07362551178117581</v>
+        <v>0.07287956104631405</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07326091851332309</v>
+        <v>0.07393606070650818</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04522482411065596</v>
+        <v>0.04619059307523203</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03643919863195251</v>
+        <v>0.03633281860723114</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0765139306925139</v>
+        <v>0.07518827414017434</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04855051321248424</v>
+        <v>0.05951065130174557</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05359973480001864</v>
+        <v>0.05347905138494916</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04366850420781503</v>
+        <v>0.04397641746608014</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06467812785986306</v>
+        <v>0.06755224924161878</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04469944389611105</v>
+        <v>0.04825752552585894</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.01530677062636323</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.002312405980937437</v>
+        <v>0.002312405980937436</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.0368033403970008</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0162281032504784</v>
+        <v>0.01484073729812434</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01464358792830038</v>
+        <v>0.01440102467970759</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01272678922563576</v>
+        <v>0.00918974780282026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.002557149233241706</v>
+        <v>0.002581818203284372</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01517013895650647</v>
+        <v>0.01552753630641684</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01942497475578992</v>
+        <v>0.02038294181322091</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004762978297562013</v>
+        <v>0.004808952270131796</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02142951454982783</v>
+        <v>0.02116153903798567</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02216565727456618</v>
+        <v>0.02193065505136311</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01064010112219678</v>
+        <v>0.00978093349408999</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.002065321168205997</v>
+        <v>0.001260545750181427</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06955474835857325</v>
+        <v>0.06662303720591356</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06740326355275968</v>
+        <v>0.06500874270111137</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0571870769350547</v>
+        <v>0.05701425021026255</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0339145110614378</v>
+        <v>0.03508314021955288</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07422315375438643</v>
+        <v>0.07232154720956485</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07582934052598819</v>
+        <v>0.07589751211285269</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04036228223965665</v>
+        <v>0.03944332799283869</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01194908697080649</v>
+        <v>0.01076403231865755</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06223828105014673</v>
+        <v>0.06060785419950917</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06182365958535756</v>
+        <v>0.06071917375603247</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03850846664868402</v>
+        <v>0.03847829134688419</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01656357584347812</v>
+        <v>0.01711845405363812</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.09289503532290197</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.05310502689227121</v>
+        <v>0.05310502689227119</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03551264718445148</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01370601147908412</v>
+        <v>0.01432718690811105</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01037076247579665</v>
+        <v>0.0101787515807831</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03601653767426045</v>
+        <v>0.03601968133575976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01999414891343816</v>
+        <v>0.02026148408720503</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01956807112803645</v>
+        <v>0.01880959722413424</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03527463859142498</v>
+        <v>0.03830071914222117</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05879942303899761</v>
+        <v>0.06054758265598875</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03781570878310326</v>
+        <v>0.03593377266989844</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02055866834664324</v>
+        <v>0.02250826719704295</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02688857707640779</v>
+        <v>0.02802916792079859</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.056101355419836</v>
+        <v>0.05474072407958967</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03208508870303235</v>
+        <v>0.03194849809243026</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06067524963123232</v>
+        <v>0.06331005522582442</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06203456975327692</v>
+        <v>0.05382288762391108</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09264609432923557</v>
+        <v>0.09523398593416113</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05483690395311281</v>
+        <v>0.0585386453582646</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06834009327447019</v>
+        <v>0.06979361956193476</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09739769572644792</v>
+        <v>0.09670353274558893</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.129732471546681</v>
+        <v>0.1340306475367099</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0795532715085355</v>
+        <v>0.07824714078345162</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05320499915400636</v>
+        <v>0.05295405357660212</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06418087703150258</v>
+        <v>0.06251331399911104</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1054738403706553</v>
+        <v>0.1007715712434923</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05981759480317519</v>
+        <v>0.05913147640264237</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02896453145997354</v>
+        <v>0.02914232774099943</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02223527720125512</v>
+        <v>0.02137775732736814</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004832400876955757</v>
+        <v>0.004815904200941793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01265527705942849</v>
+        <v>0.01317051337196282</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01772710172928683</v>
+        <v>0.01675988795770291</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01744426340750318</v>
+        <v>0.01684675741969312</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.00268521065039175</v>
+        <v>0.002840490007938722</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02072219899620662</v>
+        <v>0.02089790430007022</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0263016347778833</v>
+        <v>0.02548027037385701</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02309755728259642</v>
+        <v>0.02224489689174086</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.005228845830992645</v>
+        <v>0.005354416088740202</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01913669750199597</v>
+        <v>0.01926718662483815</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06595388099452061</v>
+        <v>0.06406907598402625</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05161839391221545</v>
+        <v>0.05023751097334093</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02386145619169559</v>
+        <v>0.02442085362807609</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03586177302053609</v>
+        <v>0.03806089122171057</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04439416022347781</v>
+        <v>0.04395617496964326</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04186972849142141</v>
+        <v>0.04246791668179505</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01832427593696203</v>
+        <v>0.01863013880772705</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04372378820135917</v>
+        <v>0.04364962789700817</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04773468423162384</v>
+        <v>0.04741450889010024</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04153658921739643</v>
+        <v>0.04240270577748383</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01783545891283818</v>
+        <v>0.01768722522094567</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03587116756974955</v>
+        <v>0.0360980645343988</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.02043078847808149</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.01989577456276881</v>
+        <v>0.01989577456276882</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02151521178075403</v>
+        <v>0.02299632621318161</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.005243225220211446</v>
+        <v>0.00524258882511057</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01374078721164502</v>
+        <v>0.01440826607321048</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01131653996168496</v>
+        <v>0.01071915329717019</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02295706489533379</v>
+        <v>0.02359900608276465</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.009301573221241942</v>
+        <v>0.009745498401663126</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01017568034425576</v>
+        <v>0.009872812443505199</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01103210686644367</v>
+        <v>0.01041633354008177</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02699825447314511</v>
+        <v>0.0257800084507414</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.009008358915189099</v>
+        <v>0.0090424677085748</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01452813696574135</v>
+        <v>0.01416029925554005</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01382875735982395</v>
+        <v>0.01389178479985653</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05051224668063817</v>
+        <v>0.05168685869741716</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0233867957703428</v>
+        <v>0.02222797928769681</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03484572424077585</v>
+        <v>0.03647738816701569</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03538826607111176</v>
+        <v>0.03564165754918704</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04923923620859489</v>
+        <v>0.04978763300916261</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02997557568870755</v>
+        <v>0.03104203772681364</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0299859307240361</v>
+        <v>0.03001284031922339</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02927030494216377</v>
+        <v>0.02845662437062932</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04518508136916511</v>
+        <v>0.04554984116112266</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02148354788155211</v>
+        <v>0.02194612246773133</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02875202321207395</v>
+        <v>0.02816978684776771</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02982687961675844</v>
+        <v>0.02865552907383813</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03118408752751014</v>
+        <v>0.03171136369708693</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02335823928493855</v>
+        <v>0.02363167627978024</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02121575942934481</v>
+        <v>0.02125897502094919</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01743797422362117</v>
+        <v>0.01840898725901255</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02197660683752431</v>
+        <v>0.02265076232825085</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02208047845969621</v>
+        <v>0.02273191741739945</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01905587293413586</v>
+        <v>0.01973630382407751</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0222571242350309</v>
+        <v>0.02274386829547191</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02844166590762844</v>
+        <v>0.02825312315176922</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.02422050038214886</v>
+        <v>0.02427170256393837</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.02192673629698776</v>
+        <v>0.0218635767781966</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02140497594285365</v>
+        <v>0.02154216975164238</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04518144908536175</v>
+        <v>0.04548993550447905</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03477514812714298</v>
+        <v>0.03489191567410645</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03228404875620152</v>
+        <v>0.03238523520950426</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0296679988034881</v>
+        <v>0.02974649709758256</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03353484582512958</v>
+        <v>0.03440526181672535</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.03409911924034233</v>
+        <v>0.03352070841958723</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.03072424131167454</v>
+        <v>0.03050520321670615</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03154894734999247</v>
+        <v>0.032289632170013</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03768988355623194</v>
+        <v>0.03733294285164939</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.03221545839491034</v>
+        <v>0.0323564847975647</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02921648724135961</v>
+        <v>0.02958326278415803</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.02876579193397492</v>
+        <v>0.02903366475764415</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4750</v>
+        <v>4674</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6747</v>
+        <v>6596</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2634</v>
+        <v>2133</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4552</v>
+        <v>5002</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2958</v>
+        <v>2759</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2944</v>
+        <v>2485</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4354</v>
+        <v>4337</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8718</v>
+        <v>9006</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9197</v>
+        <v>9609</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11241</v>
+        <v>11940</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8121</v>
+        <v>7934</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15829</v>
+        <v>15459</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15629</v>
+        <v>16467</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20543</v>
+        <v>19402</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14125</v>
+        <v>12286</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15629</v>
+        <v>15660</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15199</v>
+        <v>15457</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14501</v>
+        <v>13910</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16876</v>
+        <v>17628</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19166</v>
+        <v>19267</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>26631</v>
+        <v>25617</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>29080</v>
+        <v>29028</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>24468</v>
+        <v>24815</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>30846</v>
+        <v>30048</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3082</v>
+        <v>3038</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5013</v>
+        <v>4949</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2127</v>
+        <v>2099</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4906</v>
+        <v>5317</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4242</v>
+        <v>3981</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3157</v>
+        <v>3086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1079</v>
+        <v>1264</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10574</v>
+        <v>10992</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9735</v>
+        <v>9647</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11073</v>
+        <v>11069</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5214</v>
+        <v>5989</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>19641</v>
+        <v>19674</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15645</v>
+        <v>16278</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19433</v>
+        <v>19837</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13503</v>
+        <v>12669</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22404</v>
+        <v>25114</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16707</v>
+        <v>16219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14641</v>
+        <v>14515</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10491</v>
+        <v>10661</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25236</v>
+        <v>24349</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26291</v>
+        <v>26007</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>28562</v>
+        <v>28958</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>18969</v>
+        <v>19268</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>41906</v>
+        <v>41976</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11197</v>
+        <v>11198</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8853</v>
+        <v>9449</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6573</v>
+        <v>7324</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2998</v>
+        <v>3099</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9981</v>
+        <v>9253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1913</v>
+        <v>2095</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5034</v>
+        <v>5492</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14128</v>
+        <v>13999</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22580</v>
+        <v>23077</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11077</v>
+        <v>11229</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10361</v>
+        <v>10173</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28590</v>
+        <v>31637</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23363</v>
+        <v>23825</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21225</v>
+        <v>20772</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13832</v>
+        <v>13842</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10043</v>
+        <v>10853</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27802</v>
+        <v>26776</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11878</v>
+        <v>11800</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14061</v>
+        <v>14332</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>34249</v>
+        <v>34114</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>45495</v>
+        <v>44029</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>27359</v>
+        <v>26598</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23769</v>
+        <v>24715</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11161</v>
+        <v>10935</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7655</v>
+        <v>7043</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9520</v>
+        <v>10048</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3613</v>
+        <v>3389</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4587</v>
+        <v>4707</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3047</v>
+        <v>3020</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10624</v>
+        <v>11703</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2837</v>
+        <v>2689</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>18859</v>
+        <v>18819</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13174</v>
+        <v>13554</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24836</v>
+        <v>25281</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>8205</v>
+        <v>8669</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26611</v>
+        <v>27256</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25057</v>
+        <v>24369</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27239</v>
+        <v>26963</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27337</v>
+        <v>27589</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16799</v>
+        <v>17158</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14173</v>
+        <v>14132</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>29633</v>
+        <v>29119</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20486</v>
+        <v>25111</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>39135</v>
+        <v>39046</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33316</v>
+        <v>33551</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>48977</v>
+        <v>51154</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>35541</v>
+        <v>38370</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3299</v>
+        <v>3017</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3113</v>
+        <v>3062</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2688</v>
+        <v>1941</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3150</v>
+        <v>3225</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4266</v>
+        <v>4476</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8807</v>
+        <v>8697</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>9580</v>
+        <v>9479</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4573</v>
+        <v>4204</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>894</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14141</v>
+        <v>13545</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14331</v>
+        <v>13822</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12079</v>
+        <v>12043</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6975</v>
+        <v>7215</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15414</v>
+        <v>15019</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>16651</v>
+        <v>16666</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>8823</v>
+        <v>8622</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2715</v>
+        <v>2446</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>25578</v>
+        <v>24908</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>26721</v>
+        <v>26243</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>16551</v>
+        <v>16538</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>7170</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3712</v>
+        <v>3880</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2841</v>
+        <v>2789</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>9477</v>
+        <v>9478</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5413</v>
+        <v>5485</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5443</v>
+        <v>5232</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9878</v>
+        <v>10725</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>16059</v>
+        <v>16536</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>9974</v>
+        <v>9478</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>11286</v>
+        <v>12356</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>14897</v>
+        <v>15528</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>30084</v>
+        <v>29354</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>17148</v>
+        <v>17075</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16432</v>
+        <v>17145</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16996</v>
+        <v>14746</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>24377</v>
+        <v>25058</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14845</v>
+        <v>15847</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>19008</v>
+        <v>19413</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>27274</v>
+        <v>27080</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>35432</v>
+        <v>36606</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20982</v>
+        <v>20638</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>29207</v>
+        <v>29069</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>35557</v>
+        <v>34633</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>56559</v>
+        <v>54038</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>31970</v>
+        <v>31603</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17814</v>
+        <v>17923</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>14737</v>
+        <v>14169</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3173</v>
+        <v>3162</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>9108</v>
+        <v>9479</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11314</v>
+        <v>10696</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>12104</v>
+        <v>11689</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1856</v>
+        <v>1964</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>15999</v>
+        <v>16134</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>32962</v>
+        <v>31933</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>31335</v>
+        <v>30178</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>7048</v>
+        <v>7217</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>28547</v>
+        <v>28742</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>40563</v>
+        <v>39404</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>34212</v>
+        <v>33297</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15666</v>
+        <v>16034</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>25809</v>
+        <v>27392</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>28333</v>
+        <v>28054</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>29051</v>
+        <v>29466</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>12667</v>
+        <v>12879</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>33757</v>
+        <v>33700</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>59823</v>
+        <v>59422</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>56350</v>
+        <v>57525</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>24040</v>
+        <v>23840</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>53511</v>
+        <v>53849</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>16003</v>
+        <v>17105</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>10698</v>
+        <v>11218</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9031</v>
+        <v>8555</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>17987</v>
+        <v>18490</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>7663</v>
+        <v>8029</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>8407</v>
+        <v>8157</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>9171</v>
+        <v>8659</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>41235</v>
+        <v>39374</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>14440</v>
+        <v>14495</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>23314</v>
+        <v>22724</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>22533</v>
+        <v>22635</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>37571</v>
+        <v>38444</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>18221</v>
+        <v>17318</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>27130</v>
+        <v>28401</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>28242</v>
+        <v>28445</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>38579</v>
+        <v>39009</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>24695</v>
+        <v>25574</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>24773</v>
+        <v>24796</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>24333</v>
+        <v>23657</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>69011</v>
+        <v>69569</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>34437</v>
+        <v>35179</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>46140</v>
+        <v>45205</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>48600</v>
+        <v>46691</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>102176</v>
+        <v>103904</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>80044</v>
+        <v>80981</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>72014</v>
+        <v>72160</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>61604</v>
+        <v>65035</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>74263</v>
+        <v>76541</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>78569</v>
+        <v>80887</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>67544</v>
+        <v>69956</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>83136</v>
+        <v>84954</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>189300</v>
+        <v>188045</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>169182</v>
+        <v>169540</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>152147</v>
+        <v>151709</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>155572</v>
+        <v>156569</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>148039</v>
+        <v>149050</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>119167</v>
+        <v>119567</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>109583</v>
+        <v>109927</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>104810</v>
+        <v>105087</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>113321</v>
+        <v>116262</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>121335</v>
+        <v>119277</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>108903</v>
+        <v>108127</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>117843</v>
+        <v>120610</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>250854</v>
+        <v>248478</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>225028</v>
+        <v>226013</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>202730</v>
+        <v>205275</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>209070</v>
+        <v>211017</v>
       </c>
     </row>
     <row r="40">
